--- a/数据整理/stocks/A股/上证主板/600418-江淮汽车.xlsx
+++ b/数据整理/stocks/A股/上证主板/600418-江淮汽车.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004854</t>
+          <t>005094</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发中证全指汽车指数A</t>
+          <t>万家臻选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.59</t>
+          <t>55.87</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>64.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7153</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004855</t>
+          <t>004854</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发中证全指汽车指数C</t>
+          <t>广发中证全指汽车指数A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>33.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.59</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.87</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2949</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001267</t>
+          <t>009794</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>泰达宏利蓝筹价值混合</t>
+          <t>太平智选一年定期开放股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.53</t>
+          <t>5.88</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1835</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005094</t>
+          <t>004855</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>万家臻选混合</t>
+          <t>广发中证全指汽车指数C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>64.83</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1409</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009794</t>
+          <t>001267</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>太平智选一年定期开放股票</t>
+          <t>泰达宏利蓝筹价值混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>85.34</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -642,15 +702,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>92.86</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>4.14</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>9</v>
       </c>
     </row>
@@ -665,7 +735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,15 +756,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -706,26 +786,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004854</t>
+          <t>009199</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发中证全指汽车指数A</t>
+          <t>万家价值优势一年持有期混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.33</t>
+          <t>43.81</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5684</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -734,25 +824,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004855</t>
+          <t>004854</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发中证全指汽车指数C</t>
+          <t>广发中证全指汽车指数A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>15.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.33</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.05</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4648</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>
@@ -762,26 +862,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009199</t>
+          <t>004855</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>万家价值优势一年持有期混合</t>
+          <t>广发中证全指汽车指数C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.37</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1110</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600418-江淮汽车.xlsx
+++ b/数据整理/stocks/A股/上证主板/600418-江淮汽车.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -897,4 +898,554 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005094</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家臻选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4971</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009199</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家价值优势一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0927</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519196</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家新兴蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8174</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004854</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5833</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161912</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5108</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519195</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家品质生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4054</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004855</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1277</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000166</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中海信息产业精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>161913</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009726</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009727</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519117</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浦银安盛基本面400指数</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>162907</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰信中证锐联基本面400指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600418-江淮汽车.xlsx
+++ b/数据整理/stocks/A股/上证主板/600418-江淮汽车.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1448,4 +1449,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011328</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>90.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4126</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011329</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>59.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2404</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004854</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9066</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009859</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华乐享混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2843</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004855</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2411</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519117</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浦银安盛基本面400指数</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>162907</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰信中证锐联基本面400指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600418-江淮汽车.xlsx
+++ b/数据整理/stocks/A股/上证主板/600418-江淮汽车.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1771,4 +1772,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600418-江淮汽车.xlsx
+++ b/数据整理/stocks/A股/上证主板/600418-江淮汽车.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1780,7 +1781,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1791,17 +1792,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1811,14 +1832,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.09</v>
+          <t>011328</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>108.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.6571</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1827,14 +1870,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.11</v>
+          <t>011058</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>106.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.5831</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1843,14 +1908,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.14</v>
+          <t>001975</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城环保优势股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.8819</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1859,13 +1946,721 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>011329</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>72.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.7565</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>260101</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>73.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.4046</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006435</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城创新成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>40.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6546</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009376</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城成长领航混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.43</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8458</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011059</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5404</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>163503</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天治核心成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2395</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>410001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华富竞争力优选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2036</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>260111</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城公司治理混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1446</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>510770</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>申万菱信上证G60战略新兴产业成份ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>97.45</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1023</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000866</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝高端制造股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>516110</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰中证800汽车与零部件ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007713</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华富科技动能混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010711</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华富国潮优选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519117</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>浦银安盛基本面400指数</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>162907</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰信中证锐联基本面400指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001849</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>前海开源强势共识100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>24.25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>4.37</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600418-江淮汽车.xlsx
+++ b/数据整理/stocks/A股/上证主板/600418-江淮汽车.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2559,7 +2560,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2570,17 +2571,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2590,14 +2611,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>19</v>
-      </c>
-      <c r="D2" t="n">
-        <v>24.25</v>
+          <t>516110</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证800汽车与零部件ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2606,14 +2649,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>007713</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华富科技动能混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.09</v>
       </c>
     </row>
     <row r="4">
@@ -2622,14 +2687,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>010711</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华富国潮优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>24.25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>5.11</v>
+        <v>7.09</v>
       </c>
     </row>
     <row r="5">
@@ -2638,14 +2809,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>2.14</v>
+        <v>5.11</v>
       </c>
     </row>
     <row r="6">
@@ -2654,13 +2825,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>4.37</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600418-江淮汽车.xlsx
+++ b/数据整理/stocks/A股/上证主板/600418-江淮汽车.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2730,7 +2731,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2741,17 +2742,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2761,14 +2782,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.09</v>
+          <t>516110</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证800汽车与零部件ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3544</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2777,14 +2820,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>19</v>
-      </c>
-      <c r="D3" t="n">
-        <v>24.25</v>
+          <t>001702</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方创新科技混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2517</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2793,14 +2858,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.09</v>
+          <t>410001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华富竞争力优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2004</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -2809,14 +2896,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>13</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.11</v>
+          <t>007777</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中邮研究精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1203</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -2825,14 +2934,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.14</v>
+          <t>001403</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商国企改革主题混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1148</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -2841,13 +2972,791 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>008988</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1124</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008989</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007713</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华富科技动能混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002434</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银宏利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>30.30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003966</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银润利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>31.59</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002261</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中银宝利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>31.89</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003967</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中银润利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>31.59</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010711</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华富国潮优选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002614</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中银颐利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>33.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002435</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中银宏利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>30.30</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002262</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银宝利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>31.89</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>510770</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>申万菱信上证G60战略新兴产业成份ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>96.13</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002615</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中银颐利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>33.15</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>590007</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008124</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519117</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>浦银安盛基本面400指数</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>162907</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>泰信中证锐联基本面400指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>24.25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.09</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>13</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>4.37</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600418-江淮汽车.xlsx
+++ b/数据整理/stocks/A股/上证主板/600418-江淮汽车.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>1.47</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D3" t="n">
-        <v>0.09</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>24.25</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>7.09</v>
+        <v>24.25</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>5.11</v>
+        <v>7.09</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D7" t="n">
-        <v>2.14</v>
+        <v>5.11</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>6</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>4.37</v>
       </c>
     </row>
@@ -600,6 +617,328 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003835</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华沪深港新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5881</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>016067</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华新能源汽车混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7697</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>169107</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红恒阳五年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3950</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>516110</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中证800汽车与零部件ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2349</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>016068</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华新能源汽车混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1479</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>510770</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>申万菱信上证G60战略新兴产业成份ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>96.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001864</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中海魅力长三角灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>50.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1491,7 +1830,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1661,7 +2000,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2439,7 +2778,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2761,7 +3100,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3311,7 +3650,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3481,7 +3820,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600418-江淮汽车.xlsx
+++ b/数据整理/stocks/A股/上证主板/600418-江淮汽车.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>3.15</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>1.47</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D4" t="n">
-        <v>0.09</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>24.25</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>7.09</v>
+        <v>24.25</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>5.11</v>
+        <v>7.09</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D8" t="n">
-        <v>2.14</v>
+        <v>5.11</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>6</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>4.37</v>
       </c>
     </row>
@@ -616,7 +633,765 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005094</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家臻选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>55.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>64.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7153</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004854</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2949</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009794</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>太平智选一年定期开放股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1835</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004855</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1409</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001267</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰达宏利蓝筹价值混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005281</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中科沃土转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003835</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华沪深港新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7457</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004854</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7736</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>016067</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华新能源汽车混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7407</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010094</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银施罗德产业机遇混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6310</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004855</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5710</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519773</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银施罗德数据产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.79</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5447</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>398061</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中海消费混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1775</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>016068</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华新能源汽车混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1420</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014549</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>交银施罗德数据产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.66</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0960</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>015986</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中海新兴成长六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>40.87</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0732</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>510770</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>申万菱信上证G60战略新兴产业成份ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>95.96</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -938,7 +1713,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1830,7 +2605,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2000,7 +2775,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2778,7 +3553,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3100,7 +3875,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3650,7 +4425,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3818,288 +4593,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>005094</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>万家臻选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>55.87</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>64.83</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.7153</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>004854</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发中证全指汽车指数A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>33.46</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.59</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.2949</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009794</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>太平智选一年定期开放股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.88</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>85.34</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1835</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004855</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发中证全指汽车指数C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.59</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1409</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001267</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>泰达宏利蓝筹价值混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.53</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0325</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005281</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中科沃土转型升级灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.86</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0062</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>